--- a/ZA/testcases/TestCaseExeSheet.xlsx
+++ b/ZA/testcases/TestCaseExeSheet.xlsx
@@ -33,7 +33,7 @@
     <t>TC_002.xlsx</t>
   </si>
   <si>
-    <t>Fedcentric</t>
+    <t>Resolve</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
